--- a/orcamentosParaClientes/OrcamentoGerado_Arranjo Decorações.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Arranjo Decorações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28AC23-88FA-4391-A4C8-A9AE87DE13C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87C6FA-CA15-490F-997A-142D9BC3C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C593642F-574E-4542-A77B-A886CD53231F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0285499C-E3A7-4417-9039-36D87164C8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -206,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -704,10 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09412D54-9C70-4C22-B60C-444CCE234A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354B00A8-C134-4C7C-BBD9-9F58798FD45B}">
   <dimension ref="A3:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -868,12 +870,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="16">
-        <f>G16*(1-(H16/100))</f>
-        <v>0</v>
+        <f>G16*(1-(H16/100))+20+60</f>
+        <v>80</v>
       </c>
       <c r="J16" s="16">
         <f>I16*F16</f>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -882,7 +884,7 @@
       </c>
       <c r="J17" s="19">
         <f>SUM(J15:J16)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -962,12 +964,12 @@
         <v>10</v>
       </c>
       <c r="I21" s="16">
-        <f>G21*(1-(H21/100))</f>
-        <v>450</v>
+        <f>G21*(1-(H21/100))+20+60</f>
+        <v>530</v>
       </c>
       <c r="J21" s="16">
         <f>I21*F21</f>
-        <v>39600</v>
+        <v>46640</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -996,12 +998,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="16">
-        <f>G22*(1-(H22/100))</f>
-        <v>50</v>
+        <f>G22*(1-(H22/100))+20+60</f>
+        <v>130</v>
       </c>
       <c r="J22" s="16">
         <f>I22*F22</f>
-        <v>250</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,7 +1012,7 @@
       </c>
       <c r="J23" s="19">
         <f>SUM(J20:J22)</f>
-        <v>39850</v>
+        <v>47290</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,12 +1092,12 @@
         <v>10</v>
       </c>
       <c r="I27" s="16">
-        <f>G27*(1-(H27/100))</f>
-        <v>72</v>
+        <f>G27*(1-(H27/100))+20+60</f>
+        <v>152</v>
       </c>
       <c r="J27" s="16">
         <f>I27*F27</f>
-        <v>360</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1104,7 +1106,7 @@
       </c>
       <c r="J28" s="19">
         <f>SUM(J26:J27)</f>
-        <v>360</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1184,12 +1186,12 @@
         <v>10</v>
       </c>
       <c r="I32" s="16">
-        <f>G32*(1-(H32/100))</f>
-        <v>9</v>
+        <f>G32*(1-(H32/100))+20+60</f>
+        <v>89</v>
       </c>
       <c r="J32" s="16">
         <f>I32*F32</f>
-        <v>45</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1198,7 +1200,7 @@
       </c>
       <c r="J33" s="19">
         <f>SUM(J31:J32)</f>
-        <v>45</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1215,7 +1217,7 @@
       </c>
       <c r="J35" s="19">
         <f>J33+J28+J23+J17</f>
-        <v>40255</v>
+        <v>48895</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1315,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D8715-3E5F-4B1B-8C3B-47F4FA334345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D99118-37AC-4A36-9A5E-D507244241DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
